--- a/data_annotation/output_to_annonate/file_1_sofia.xlsx
+++ b/data_annotation/output_to_annonate/file_1_sofia.xlsx
@@ -469,12 +469,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">We had a phenomenal fishing trip with Kiriakos and his daughter Tina.  Wonderful people not only as “fishing bodies” but also a wonderful family. We visited many beautiful places and had a great lunch . You must experience it !!!! Greeeeaaat 👍⭐️⭐️⭐️⭐️⭐️⭐️⭐️ ❤️J&amp;P </t>
+          <t>We had a fantastic day on the with many stops for swimming, snorkeling and exploring. We did not do any fishing but just went out with 6 people to discover Skiathos, Skopelos and some smaller islands. Dimitris was super nice and fixed everything, including fresh delicacies from the ocean, delicious lunch and fresh fruit platter. All in all I would strongly recommend this for any group of people, old or young.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Great Fishing trip Adamas, June ,18 2019</t>
+          <t>Highlight of the week!</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -485,12 +485,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Great fishing, nice food and beautiful bay to swim. Small fish were annoying to catch. Got great beer to compensate that. 6/5</t>
+          <t>Superb and chilled out. Adventures to secluded beaches, caves and underwater caverns. Jumping from seriously big boulders into perfectly blue waters. Watching the 'catch' reeled in - fascinating and hypnotic! The guys are so accommodating and friendly - I hope this continues to be such a success for you both, K&amp;D. Thanks for the best day. x</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fishing Trip</t>
+          <t>Great day out, lovely people and memories for some time to come.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -501,12 +501,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>If you ever visit Milos this is a must-do experience. Fresh fish, the greek sun and sea with crystal clear water create an amazing feelling. You won't regret this for sure. As for captain Nikos and Froso what can I say, they are so heart-warming and authentic people that they…</t>
+          <t>It is my first time ocean fishing.Giorgos is the best captain! He is knowledgable, and likes to share with people.  Such a good experience. It's not only about fishing. The food we got is fabulous as well!!</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A MUST-DO experience in Milos!</t>
+          <t>Fantastic day with Giorgos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -517,12 +517,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Thanks so much! We had a great time this morning. Efi went out of her way to help us at every point, even offering to book us a ride back to Agostoli with her friend afterwards as we had no transport. The day was amazing and the food delicious. We would love to come back again…</t>
+          <t xml:space="preserve">We had a brilliant day out with this tour. It was a unique experience being out on a fishing boat and watching the guys catch the fish - the lunch of fresh fish was something to remember! I'd highly recommend </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fab day out!</t>
+          <t>Fabulous trip</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -533,12 +533,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Honestly this fishing trip is one not to be missed. Both guys on the boat were fantastic with my two children teaching them how to fish. The food was so fresh and a great end to the day. We also went snorkelling, jumping off the boat was a first for my little ones (8 &amp; 10 years…</t>
+          <t xml:space="preserve">We had a fabulous day fishing, swimming and eating what we caught. The fresh fish tasted amazing. I highly recommend this trip. </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">The best day of our holiday </t>
+          <t xml:space="preserve">Great experience </t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -549,12 +549,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>What a day! We found this gem of a boat at the Adamantas port in Milos, after looking at many other options for a trip around the island and to the lovely beaches. Our initial impulse was to go on a sailboat- but they were fully booked. My husband and a friend found this little…</t>
+          <t>what a fantastic trip we had today thank you Antonia, Michelis and crew the whole trip from beginning to end was very interesting and informative from being told how the nets would be dropped to the length and lifespan of the lobsters the different species of fish in the area Antonia has so much knowledge and her English language is amazing the meal was amazing but felt a bit sad to be eating Larry ( the lobster) I must say he tested delicious as did the test of the meal and the homemade wine was awesome as I don't usually drink white wine Antonia got some Rose especially for me which was so thoughtful and didn't expect all in all we  thoroughly enjoyed our trip thank you Antonia, Michalis and crew  xx</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Authentic boat trip</t>
+          <t>Authentic Greek Fishing Boat Trip</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -565,12 +565,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>This fishing trip was the highlight of our holiday. Swimming, beautiful beaches, amazing scenery, fantastic lunch and wonderful hosts. Thank you both!</t>
+          <t>Four of us are just back from a fantastic trip with Antonia and Michalis, their daughter Nicki and Hassan (I’m not sure how you spell his name ).  What a first class day from booking on the Web, Antonia got back to me so promptly it was unbelievable, to getting back to the harbour at the end of the day.  I don’t know where to start, they make you feel part of their family from the moment you step on board their lovely traditional fishing boat.  The day started with coffee and cake whilst leaving the harbour on our way to picking up the nets.  They caught Lobster and Sea Bream which was all prepared for a magnificent  lunch, it was the best food we have had whilst in Kephalonia.  If you do nothing else whilst there then this day is a must and we wouldn’t hesitate to join them again and in fact can’t wait to book again.I can’t think of anything negative to say, it was just a glorious day with people who made you feel like family.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A wonderful day out.</t>
+          <t>Day Fishing trip</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -581,12 +581,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>We had a great day with you guys. We went for fishing with nets and fishing robs.we were lucky because our catch was full of shrimps and our lunch was delicious. We went to the beach "White Rocks" which has access only by the sea and it was amazing and clean. I think this…</t>
+          <t xml:space="preserve">We didn’t do the fishing trip but the one hour mini cruise which went ahead despite there only being two of us on board. We went along both sides of the harbour and enjoyed the trip. Care was taken in relation to Covid. Capt Tasos is obviously a friendly character and we loved the dog. </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Amazing experience!!!</t>
+          <t>Couldn’t be better</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -597,12 +597,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Getting down with the locals...... Well, what a perfect day spent with the wonderful, charismatic Efi and husband Dimitrios.   Together with the fisherman of few words, Mohammed (but when he spoke, his words were kind and full of wisdom). It was magic watching him work those nets.   It was a day of fun, wonder, relaxation and laughter, gently cruising the coastline of Kefalonia.  We stopped a few times to haul in the fishing nets and those who wanted to helped free the vast assortment of fish and crustaceans from the nets.  A real education for a complete novice like me.    So we continued, anchoring twice to swim in exotic coves that were almost inaccessible by land.  Meanwhile,  Efi magically conjured up the most delicious  barbecued seafood feast, accompanied with local fresh salad and Efi’s secret recipe of buttery lemon potatoes.  Not to mention carafes of local wine and fresh fruit.....  Amazing how sharing good food and a few glasses of wine can unite strangers into friendship, united by such a splendid experience!     Saying goodbye was hard.  The end of a memorable day, feeling very happy and content.  Very thankful to all three of our perfect hosts.…</t>
+          <t xml:space="preserve">I have been looking forward to this trip since June and it lived up to everything and more , Antonio was so good on communication no matter when , being a keen fisherman it was fascinating to see all the different species bought in , we all got stuck in getting the fish out as soon as possible ready for michalis to cook , anchored in a pretty cove and basically chilled until lunch was made , lobster , fish , pasta salads etc all washed down with homemade wine .. antonio was so welcoming and in no time the 10 on board were chatting like old friends .. fantastic day will return 100% next time in kefalonia , thank you again . Gary and Amanda </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Magical Fishing Cruise</t>
+          <t xml:space="preserve">Fish, swim , eat , drink laugh </t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -613,12 +613,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>I booked this tour on July 10th with a bunch of people who were not terribly keen on going fishing, but wanted to go on a boat for the day. I can tell you that by the time we were done, everyone was ecstatic that they booked. You do not need to fish if you do not want to, rather…</t>
+          <t>We experienced this fantastic boat trip with Zante Fishing Tours whilst on holiday in Kalamaki. We have holidayed here for many years and were looking for something different. This trip provided this and lots lots more! From being involved in casting the nets, watching the catch come in and swimming in some truly beautiful places, all topped off with a wonderful lunch which included the fish we had caught fresh from the sea! Giorgos and his “FBI” in-laws were such marvellous hosts, and provided great insight into fishing techniques and of the island. They ensured we sailed the waters in such a way to prevent a rough ride and therefore no chance of sea sickness, which we were all slightly worried about. Life jackets, snorkels and flotation aids were all provided to help those less confident in the water. The swimming stop offs were in areas which were isolated and off the beaten track, making the experience all the more special. We were a party of 10 and everyone enthused about the trip. In fact once telling others about it back at our hotel, many swiftly booked in the following days. This was truly the highlight of our holiday and will definitely return to do it again next year! Thanks to Captain Giorgos and the family, from Dave, Natasha and friends!</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Would not change a thing! Great even if you do not fish.</t>
+          <t>A Truly Fantastic Day at Sea!!!</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -629,12 +629,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Best fishing trip ever! My 13 yr old son wanted to go fishing and we contacted Giorgaros fishing trip with our hotel Consierge.  They were amazing and very professional a true family experience.  My son loves to learn about the different fish in the area and we caught an amazing…</t>
+          <t>In our opinion this trip out is a must do. From start to finish were made to feel welcome, and within 30 minutes of boarding the boat, we felt that we were with friends that we had known all along. Antonia and Michalis, and their lovely daughter Nikki who also joined us, were superb hosts, and our lunch consisted of our "catch" for the day - lobsters - with home grown veg and home-made wine!. It happened to be my birthday, and turned out to be one of the most memorable I have ever had. We even had cake. What a lovely personal touch. Thank you Antonia and Michalis</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fishing trip in Santorini</t>
+          <t>OMG ! What a great day out.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -645,12 +645,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Would recommend this tour 100% great experience with great people. Thanks for a unique and memorable activity! </t>
+          <t>We had such an incredible day with captain Gerasimos fishing and swimming. It really is a must do experience if you visit Kefalonia. It is such an authentic and friendly feeling on the boat it is clear that the family have poured so much love into the trips. They have thought of everything. We had brought a big bag of bits and pieces but we probably could have just brought ourselves as there was scuba gear, inflatables etc. The children were delighted. We were greeted with a buffet style breakfast to enjoy while we set off to where the nets were. After lifting the nets we did some line fishing. We swam on a gorgeous little beach that we had all to ourselves and then ate the most delicious meal of our earlier catch. This is a trip for all ages, we took our 17 month old daughter and our 13 year old son.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fantastic trout by amazing people </t>
+          <t>The best day out imaginable!</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -661,12 +661,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>This was my 3rd and most successful fishing trip with Dimitris. Every time is a pleasure as Dimitris is great company and really knows how to find a good catch. Spent the morning trolling around Tsgouria island catching many tuna which we later barbecued at home and also caught…</t>
+          <t xml:space="preserve">We had a brilliant day with Dimitri and Efi cruising around the coast line. Swimming in turquoise waters, natural clay face masks, catching our own lunch, Efi's wonderful cooking and Captain Dimitri taking us to secret beaches.  A very special day. </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Great morning's fishing</t>
+          <t>Wonderful, wonderful day!!!</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -677,12 +677,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Just returned from the most magical day at sea with Captain Nikos, his wonderful wife Frossa and the legend who catches the fish, Simos.  I never write reviews, but felt compelled to share the pure joy we all experienced today. This is a traditional fishing boat, so you get to…</t>
+          <t xml:space="preserve">Me and my daughter spent an amazing day with the professional, serviceminded and lovely captains Giannis, Nansy and Areti from Samos Fishing Trips. An absolutely perfect day and extraordinary experience we will never forget!  Dolphins, fishing, swimming and sharing a delicious meal with fantastic people  Highly recommended! </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Best day EVER!</t>
+          <t>Amazing trip with lovely family 👌🏼😃</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -693,12 +693,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Our experience with  Fishing Trips Thassos Limenaria  it was amazing and unique that will never forget.The  fish  we fished were great. Also the  amazing  route  blue  seas Thassos .We will never forget  this  special experience  we 'll go back again next year for sure.l  …</t>
+          <t>My daughter told me to book the trip as it looked really interesting to me spending a day on a working fishing boat &amp; so glad we did it.We had the most amazing day with our hosts and our fellow passengers newlyweds Piotr and Malwina from Poland and Danielle from Blackpool who were great company.Emptying the nets, snorkelling in secluded bays, eating fresh snapper and lobster and drinking a few cheeky glasses of wine and plenty of laughs.An awesome day we will never forget.Thank you for your hospitality.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fishing  Trips Thassos</t>
+          <t>Amazing</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -709,12 +709,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>The only word to describe this trip is ‘fabulous’.   Great crew, lovely boat, everything provided.   Went on this trip as a group of 7 adults, holiday with our adult family.  The delightful crew catered for everyone.    Starts with a sightseeing cruise along Rhodes town then off…</t>
+          <t>We had an amazing time on the boat, there was enough space for all of us and the boat was nice and comfortabele.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Brilliant day out</t>
+          <t>Half a day boat rental</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -725,12 +725,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Amazing and authentic fishing experience for me and my wife. The crew was very friendly and cooked an excellent lunch.  Anthi (the captain) was very kind and knowledgeable</t>
+          <t xml:space="preserve">Thank you Captain Michalis, Antonia, and Mustafa for a brilliant day. It was wonderful to join your boat to experience and appreciate just what goes into catching the fish that we eat.A brilliant day out meeting lovely people on board. There was plenty of opportunities to enjoy the scenery and coastline, and to swim and snorkel in a secluded bay before enjoying an amazing lunch prepared from the catch - thank you again - lovely photos and memories from a great day out! </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Highlight of the trip</t>
+          <t>Fantastic, unique experience and excellent food!</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -741,12 +741,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>The temperature was awesome, the captain, his wife and his employee were very nice and were always proposing something to drink and to eat. We ate so many kind of fishes and it really worth it. We were only 3 customers on the boat so it was a very private tour. I recommend this…</t>
+          <t xml:space="preserve">This is a MUST do when visiting Samos! Giannis and Nancy along with their daughter Areti provide an experience found nowhere else in Samos! Their expertise in my mind is not the fishing but the hosting and cooking. The fishing was phenomenal but had we caught no fish at all would not have mattered. This beautiful family is what made our day. They are genuinely good people and Nancy is a PHENOMENAL cook! The greek feast she prepared for us at sea was amazing! The seafood pasta was to die for! The day was split up between fishing,swimming, drinking greek beer and feasting on greek food and wine....lots of it! We stopped at a beautiful beach that is frequented by locals and only reachable by boat or 850m hike down a mountainside. One word breathtaking. My family is from Samos and this felt like a family get together rather than an excursion. I can't thank them enough for making our family feel like part of theirs! Efharisto Poli, méchri na synantithoúme xaná! </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Very nice day!!</t>
+          <t xml:space="preserve">GREEK HOSPITALITY AT ITS FINEST! </t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -757,12 +757,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Stunning day out with the lovely Efi and Dimitri. Meet the boat at beautiful Kateleios harbour at 8am. Welcome aboard by charming hosts Efi and Dimitri. Motor out to bring in the nets and help as much or as little as you wish to untangle the catch of the day. Swim and Zumba the…</t>
+          <t xml:space="preserve">Antonia is a delicious person, so kind and so sweet: she came to peek us up early in the morning because we were a little bit far from the port! The day started with an amazing slice of cake cooked by herself and continued with a lot of great food and mostly important with a lot of fun! The company was great, we enjoyed the day so much from the first minute to the last.The beach we saw was incredible, we dived and swam all day. And lastly, I’m Italian and I can tell that the spaghetti that Michaelis and Antonia Made were simply PERFECT. Most beautiful day in Cefalonia.Thank you thank you thank you! </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5*Only way to describe this trip</t>
+          <t>Best experience ever!!</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -773,12 +773,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">One of the best experiences in mylos island. We visited kleftiko beach,all the stuff was very kind.Mr Andreas was very helpful and he guide us in the best beaches of the island... </t>
+          <t>Vassilis and Antonis were absolutely great and gave us an amazing experience. We did not have any experience fishing but still managed to catch a couple small ones due to the very friendly crash course and expertise of the crew! Plenty of time for fishing, and we even made a second stop. To top it up some snorkeling while Vassilis expertly prepares the days catch and some fresh salad and a nice trip back to the harbor!</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>The best</t>
+          <t>Perfect Fishing Trip</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -789,12 +789,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>We just came back from a very nice experience of fishing trip of 4 hours in the night. We all enjoyed the explanations from Dimitris, the music, the refreshment, the very nice atmosphere and of course fishing red snappers. Very recommended!!!</t>
+          <t>We loved our day with Tasos. He collected us from the jetty below New Aegli Hotel and brought some wonderful local food for us to eat on the trip: Baklava pastries, biscuits, fresh bread and cheese from Galatas, fresh fruit and salad vegetables, soft drinks, lots of ice cold water and lovely local wines. There was more than we could eat. Tasos took us on a journey around Poros island. He was really considerate and kind host. We stopped in several places to swim, secluded bays with crystal clear, turquoise blue water.  The children had great fun jumping off the boat and swimming in these quiet coves, which you couldn't reach by land. Tasos was very aware of safety, we felt totally confident in him and he was very knowledgeable about the places he took us to and what we could see in our journey. He is such a lovely person to spend time with and made us feel really welcome on his boat.This was such an amazing experience for all of us. We were two families with several teenage children and we all had the best day of our holidays. I have been visiting Poros for over 40 years, but this is the first time I have been around the whole coastline of Poros and the first time I have visited the beautiful Daskalio island near Russian Bay. I highly recommend Poros Fishing Tours to take you on a breathtaking tour of Poros' coastline with exquisite places to swim. But it was Tasos himself that made the trip extra special. Thank you for a great day and wonderful memories!</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Excellent Night Fishing</t>
+          <t>Amazing day with Tasos on a boat trip around Poros.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -805,12 +805,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>We have had a perfect day with cpt. Dimitris. He offered us good price &amp; delivered good service. We visited Lalaria and Castro beach had a lunch there in taverna and on the way back stopped for a quick fisiing. Relaxed atmosphere, music &amp; beer - we will do this again!</t>
+          <t>We go with Nikos, his wife Froso and Simon to the FishingTrip it was great ... best food fresh from the Ocean, very interesting to see the work of fishermen, speaking about living on milos and the traditions ... beautiful places for swimming! and looking!!! Snacks, fishsoup, baked fishes, greek  coffee, yoghurt with homemade sweets and watermelone, Drinks how much we want and a Ouzo before  leaving the boat!!! A very nice and  perfect day! Thanks so much Anita and Bernd.... a „must to do“ staying in Milos</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>What a day on boat !</t>
+          <t>Perfect day</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -821,12 +821,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Run by the two nicest people in Greece - Dimitris and Efi. We had the best day!  We started at 8am from Kefalonia Harbour and set out to pull in the fishing nets that had been set the night before. Kids were Uber excited as we pulled in Parrot fish, bass, bream, mullet, Scorpion…</t>
+          <t>Great experience!!!  Getting fish out of the nets is such a fun! The greek flair at sea. Captain George - a higly skilled sailor, his mother in law -the best cook ever- and Sadik will make your day. Dont miss it.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>This is a “Must Do” if you are in Kefalonia</t>
+          <t>A joyful day at sea</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -837,12 +837,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>We enjoyed a 4 hour fishing trip combined with very tasty food and swimming. The captain is friendly, relaxed and good with kids. Try it - you will not regret.</t>
+          <t>It is a great way to experience the ionian sea!! A day filled with amazing views, swimming, beaches you can only reach by boat and a catch of the day cooked meal by on board chef Sisi.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Excellent fishing trip for the whole family</t>
+          <t>the best boat trip of the island</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>An incredible day out - authentic fishing boat experience. Retrieving  the 2km nets that have been cast out at 2am prior to the trip adds to the excitement, because whatever is caught is cooked fresh for lunch on the boat's tiny but adequate kitchen.   Amazed at how good a cook…</t>
+          <t>We reach the fishplace where we will have the chance to experience fishing with nets not only for Cods, Red-mullets, Scorpion fish, Dentex, Seabreams but also for Lobsters, Norway Lobsters and Crabs. If you like you can help us empty the nets. Only when we pull in the nets do we realise how excited a fisherman gets at the sight of a good catch. You can also experience the magic of fishing with a fishing lineor a fishing rod.After fishing we steer to a beautiful isolated beach close to the fishing place, which has access only by boat. Meanwhile we empty the nets and we store the fish in ice. We anchor by the beach and there you will enjoy a wonderful swim or snorkelling in the turquoise crystal clear waters while Efthimia will be preparing a delicious meal.Under the shade of the boat, feeling the sea breeze we enjoy a good lunch made of the fish we caught, fresh organic vegetables from our garden, olive-oil from our olive grove and homemade wine of fine quality made from our organic grape vine.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Outstanding experience - a must do!</t>
+          <t>Join and Enjoy an Unforgettable Fishing Cruise ​with your Family or Friends!</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -869,12 +869,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>It is a great way to experience the ionian sea!! A day filled with amazing views, swimming, beaches you can only reach by boat and a catch of the day cooked meal by on board chef Sisi.</t>
+          <t>My girlfriend and I went on the fishing trip with Tina and her father and it was the most wonderful day of our vacation. We went along the south shore of Milos and the views were breathtaking. We did snorkling in otherwise unaccessible locations, we fished the coast and we stopped in Kleftiko to have lunch with expertly cooked, freshly caught fish. Tina and her father are great cooks, the food was unbelievable. Please, do not skip on this incredible, almost private experience. I will never forget it!</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>the best boat trip of the island</t>
+          <t>Unforgettable day with the nicest hosts!</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -885,12 +885,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>We have just been on our third trip with Antonia &amp; Mixalis and it was as excellent as ever. Once on board the boat you are offered coffee and cake to start off your day. You then sail to where the nets have been set the previous night and the catch is pulled in onto the ship.…</t>
+          <t>Absolutely fabulous day out with Michalis Fishing. Antonia greeted us with Greek coffee and the most fabulous cake which her daughter had made. Once the other two families had joined us we set sail for where Captain Michalis had set the nets the previous day. We watched as the nets were reeled in and the catch was removed from the nets, and then we stopped in a lovely bay for a swim. Whilst we relaxed in the water Antonia made the most delicious bruschetta with all fresh ingredients - so tasty.  Then we set sail for an alternative spot for another swim stop whilst lunch was prepared. I can’t describe how fantastic the food was. A good fish restaurant in London would have charged a small fortune for half of what we ate. Absolutely beautiful. The wine and water flowed all day too. After lunch and another few swims and relaxing on the boat in the sun we set off back to the marina. It was the perfect day. The hosts were so friendly and it was really interesting watching the nets being brought up and emptied. And then the catch being turned into our lunch! But even if you don’t have the remotest interest in fishing you will still have a great day out on the water with lovely people. We would thoroughly recommend it. If you’re concerned about Covid-19 this year I can assure you they very much look after you - The boat is bigger than I expected but they don’t take out too many people so social distancing is not a problem. With temperature checks etc on arrival they clearly take every precaution to make sure everything is safe for their guests. We absolutely loved it and will definitely book when we’re next in Kefalonia. Thank you to everyone on board for making our day so special. Kat and Jonathan. X</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Another excellent trip</t>
+          <t>Fantastic day out with the best food!</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -901,12 +901,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>This was a great day out which we would highly recommend to anyone even if it’s your first time fishing! The captain was very welcoming, friendly and helpful! The lunch served was delicious, whole fish bbq’d to perfection served with the classic tasty Greek salad all made fresh…</t>
+          <t xml:space="preserve">A unique expirience!! We eat the most fresh fish on lixouri. the food was cooked greek way and was excelent. the hospitality was grate and the cruise amazing.we had also music and wine. we do this cruize with my family twice! trust me and do it!! </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Amazing Fishing Trip</t>
+          <t>Lovelyy!</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -917,12 +917,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>I arranged a trip while in uk when we got there was told they was not going out so we rebooked and then was told the day before there was going to be bad weather,let me just say I am a seasoned fisherman from Grimsby,and the weather was perfect hardly any wind i just think they…</t>
+          <t>Spending the day with Efi and Dimitrios (not forgetting Mohammed) is the best day you will have on your holiday. As you make your way out to sea, you will get a lovely breakfast of tea/coffee and homemade biscuits/cakes..You'll not only learn how difficult being a fisherman is, but get to help bring in the catch for the day (if you want to), which is so much fun.Dimitrios cleans the catch and Efi then cooks it for lunch ( there is always so much left over). As well as the freshest fish you will ever have you will have homemade wine/ouzo/lemonade, plus beer, water and soft drinks. All the salads, potatoes, herbs and fruits are organic, grown by Efi and Dimitrios. It goes without saying that Efi's cooking is to die for!You will have swim stops at the most beautiful beaches/coves, accessable only by boat.This is no ordinary day out as Efi and Dimitrios are great company and truly kind, funny and very informative. We didn't stop laughing all day.Great value for a full day out.Thanks Efi and Dimitrios for yet another wonderful day with superb food, drink, but most of all lovely company / friends.Can't wait until next year!Best wishes to you for a good season</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The trip that never was</t>
+          <t>Best Fishing Trip Ever!</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -933,12 +933,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>We had a wonderful day out with Dimitris and Efi. They were so kind and accommodating to us and our 6 month old baby. We were made to feel very welcome and nothing was too much trouble. The lunch of our freshly caught fish catch was absolutely delicious and the views of the…</t>
+          <t>Run by the two nicest people in Greece - Dimitris and Efi. We had the best day!  We started at 8am from Kefalonia Harbour and set out to pull in the fishing nets that had been set the night before. Kids were Uber excited as we pulled in Parrot fish, bass, bream, mullet, Scorpion fish, squid and cuttlefish plus more - and everyone helped. Then went to a deserted beach for swimming and discovered a hidden gem... natural mineral-rich clay which we plastered all over our bodies before swimming back to the boat for a FANTASTIC meal of the fish we’d caught plus fresh vegetables from Efi’s and Dimitrios’ garden all washed down by their excellent home made wine!My 14year old daughter described it as “the best day of my life” Enough said!I really recommend it!John</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fantastic day out</t>
+          <t>This is a “Must Do” if you are in Kefalonia</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -949,12 +949,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Absolutely amazing experience, my partner and I had very active lines. The Greek salad with our bbq fish made the experience complete after a swim in the very clear sea. The on board fishermen were a joy to spend your time with and always ready to assist and advise. I would…</t>
+          <t>My husband and me book this tour it was a really nice trip the tourgides was friendly we feel home from the first moment .We have a perfect meal swim and sunset .We will come back...go on like this .Best regards‍️</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Best Fishing trip that I have been on.</t>
+          <t xml:space="preserve">Perfect </t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -965,12 +965,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Coming from Santorini where it was too cold to swim in this period, we were hesitant to go on another cruise...but it was the best decision ever! Captain Nikos and his wife treated us with much hospitality and kindness during the trip. It was a fun n unique experience eating the…</t>
+          <t>We had the most amazing day with Dimitris. 8 of us ranging from 17-50+++We swam, snorkeled, sunbathed and ate the most wonderful food prepared by Dimitris.It was a full day from 10.30-7.30pm and would recommend the trip to anyone!Thank you Dimitris</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Genuine Greek experience in Milos!!!</t>
+          <t>Best day of our holiday!</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -981,12 +981,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>For years and years I’ve been visiting the Greek islands and have wanted to go out on a traditional fishing boat. When I saw this trip and read the reviews I knew I wanted to go and it didn’t disappoint. What an amazing day we had. Captain Nikos and his wife Frossa are such a…</t>
+          <t xml:space="preserve">Our fishing tour with Giorgaros Fishing tours was perfect. Anthi and Thanos and the crew were amazing. They encouraged us to help bring in cages and fishing nets full of fish and we were educated on the different species caught. They were well equipped on board with fishing rods, snorkeling gear and towels and they took us to a glorious swimming spot. To top off the tour, they prepared the catch and made us the most exquisite lunch. They are beautiful people who did all they could to make us feel comfortable. I highly recommend them and we will most certainly sail with them again. </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>What an amazing day, thank you so much.</t>
+          <t>Magnificent fishing tour</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -997,12 +997,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>We wanted to get in some fishing while on Santorini. The typical “fishing charter” is not really available here, but we are so happy we found Athina, Marcos, and Mohammed! We had a great evening of food, fishing, and learning about the local fisheries. The food they prepared was…</t>
+          <t>Absolutely amazing! 50 euros per person for 4.5hrs trip from New Town (opposite Starbucks coffee shop) 10 minutes drive from Sentido Ixian Grand hotel (11-14euros taxi). My boyfriend is a fisher man so we decided to go, they give you rods, you get to fish, I got to catch 3 and so did my boyfriend! After fishing you get to swim in very nice clear water, then they barbecue the fishes that everyone catches, served with salad and sparkling wine.9-10 people on the boat maximum, very nice experience, worth the money, the lady Joanna will talk you through everything before booking it :) I would definitely recommend it 100% ! Have a look at the lovely pictures I have attached.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>A great way to mix it up from the typical catamaran</t>
+          <t>Amazing and cheap!</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1013,12 +1013,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>We have just had one of the most memorable days of our lives. All thanks to Dimitrios and Efthimia. What a day! And where to start?!? First of all we must say if you are visiting the island this is a MUST do trip. Even if you do one this has to be it. We saw turtles, seals and…</t>
+          <t xml:space="preserve">From start to finish the day couldn't have been more perfect ! We were welcomed onto the boat by Efi  and Demetrios as if we were old friends and by the end of the day we certainly felt as if we had known them longer than a day. Efi and Demetrios along with Mohammed and Demetrios parent's made the day so wonderfully special. The hauling in of the fishing nets.. to us novices trying to get our catch (lunch )of Red snapper .. Sea bream ... Squid .. out of the nets ... very very  tricky but made to look so easy by Efi who I hasten to add had the patience of a saint with us when we seemed to get the fish more tangled up in the net's !!! We had 2 opportunities to cool off in the sea. Once in the morning we swam in the clearest blue water onto a little cove to dry off before swimming back to the boat for refreshments and again before lunch we anchored at another stunning cove where Demetrios Mum showed us how to use the clay from the beach to have a clay body scrub ... Just fabulous ! Lunch was cooked and served by Efi on the boat . The fish caught in the morning was cooked to perfection  the organic vegetables and salad all from Efi and Demetrios garden just delicious !! The wine served was another product of Efi and Demetrios making !! The day was definitely the most memorable of our holiday and one that when we return to Katelios we will do again !The only disappointing thing about this trip was that it ended too quickly and that Jame's (a fellow day tripper ) didn't catch any fish with his rod he had bought all the way from Scotland .. But at least Demetrios Dad got the use of the rod whilst we were swimming and the amazing man did catch a fish !!! Unique trip with great company. Thank you Efi, Demetrios , Demetrio's lovely parents and Mohammed !! </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Most amazing day!</t>
+          <t>Perfect !</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1029,12 +1029,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>The best day my husband and I spent in Milos. Niko, his wife Frossa and the deckhand Simos are awesome people, we felt like part of the family as soon as we put our feet on the boat. Their hospitality is incredible!   We left from the port of Pollonia and visited the islands of…</t>
+          <t>Had a lovely day yesterday with Efi and Dimitrios we where due to do the trip early in the week but due to the bad weather Efi rearranged it for us, from start to finish this trip was fun and full of information about Kefalonia and the fish we caught and Efi cooked. There was 8 of us on the trip which was really nice as so many boat trips are crammed! But on this trip we all got time to get to know one another. We managed to catch lots of fish and cuttlefish Efi and Dimitrios explained what we where catching which was really interesting, we stopped in two beautiful places for a lovely swim and the lunch they provided was amazing. But most of all the day was made by Efi and Dimitrios hospitality they are really good hosts and made sure we where all catered for and that we enjoyed our trip. Highly recommend and a must do if coming to Kefalonia.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Amazing</t>
+          <t>Brilliant day made by Efi and Dimitrios</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1045,12 +1045,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">What an amazing host. He dived and brought pines and ahinous amazing Greek meze for tsipouro. Always with a smile and a great man dimitris. </t>
+          <t>Had a lovely day! Capt and Maria were super hospitable. Was great to see traditional fisherman at work and help with the catch! You'll eat the freshest most delicious fish and prawns in the world! Swimming in the crystal clear waters is a real treat. Short sail around the fish farm was interesting and we were lucky enough to see pod of dolphins! Can highly recommend!</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>One day trip with dimitris</t>
+          <t>Super day fishing and boating</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1061,12 +1061,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>We start with my family to go for Fishing caught a lot fishes and then we had barbeque on the boat and swimming near to the Beach... Tha ks a lot for thus expierence i hope to see you again the next august</t>
+          <t xml:space="preserve">We travelled on this trip at 5pm....yesterday.....I think if you are looking for a fishing trip then you need to do the morning trip!! Saying that ...it was great the kids could see the putting out of 6km of nets!! Ready for the mornings trip catch....It seemed a long labourious task that Captain Mihalis and Hassan  did with ease. It made us laugh as there were lots of seaweed relics in the nets. The whole trip was made a lot more bearable by three very lovely ladies that joined us on this trip, and they thankfully  supervised the children when they went for a swim from the boat...unfortunately my husband and I due to arthritis could not manage to get out of the boat to swim, neither can my daughter who has injuries to her foot. The children both age 9 swam beautifully from the boat and back  to the boat.  Finally Antonia cooked the most beautiful meal ever.... the lobster was massive and plentiful salads were gorgeous and I don’t know the name of the bread with tomatoes cucumbers and everything else traditional Greek dish was fabulous.  Antonia even provided the children with spaghetti some plain as we have a very fussy eater! All washed down by what Antonia called Grape juice ! It was lovely we all enjoyed ourselves..... thank you all very very much ...we got back to the port around 10 o’clock and the kids were exhausted and fell asleep,n the way back in the car </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Amazing trip</t>
+          <t>Well this was different.,,</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1077,12 +1077,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>From the very start of our day out until we left our hosts in the early afternoon, this was just a fantastic experience. We tried our hands at fishing ( harder than it looks!), steering the boat and just enjoying being on board with such hospitable and friendly hosts. Nothing…</t>
+          <t>Great experience and good value - lesson on how to fish, snorkelling, and a really good meal consisting of fish caught that day (even if you caught none you still got an equal portion). Thanks for a great day!</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>The Best Day of our holiday</t>
+          <t>Best day of our hols</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1093,12 +1093,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>We stopped here on a 7-day cruise. My brother-in-law found this fishing excursion and it turned out to be our best day. Yanks and Maria could not have been more accommodating. We saw sea turtles aboard a great boat. We went to a private beach where they provided snorkels for us…</t>
+          <t>We were in Santorini for our honeymoon and this was one of the things we were most looking forward to. It didn't disappoint. Anthi and her crew were spectacular. She arranged pick up and drop off from the hotel, but was also able to accommodate it to picking us up from the Akrotiri museum since we were there instead. The boat is comfortable, clean and safe. It is a working fishing boat. It is not a luxury yacht with polo wearing first mates, but those are a dime a dozen and a different experience if that is what you are looking for. Got to take a swim in the sea while the crew was cooking up the first part of dinner of what was caught in the traps and nets. The fishing is fun and what we caught/cooked was great. Being from New England we know good seafood, but have never experienced the short order of ocean--&gt;grill--&gt;plate seafood like this. Certainly no one went hungry! Anthi and the crew told us which fish were dangerous to touch (spines, teeth, stingers, etc), which were good for eating, which to throw back. They'll help you bait the hand reels and unhook anything you catch if you are concerned doing it yourself. We did the sunset cruise. That alone is worth the ride out on the boat. Not to mention that there are snacks and drinks (beer, wine, water, soda) the whole trip as well. It was an amazing experience. Anthi truly cares about the culture of the island and wants her guests to have a safe, great and memorable time. She individually got to know us and make sure we each got what were looking for out of the experience. She might be the sweetest person we met on our entire honeymoon.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Best day of our cruise!</t>
+          <t>Fresh fish and unbelievable hospitality</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1109,12 +1109,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>From the moment Antoni and his father Kyriakos picked us up my wife and I  realized this was going to be an authentic memorable experience. We have touched many a seas, be it the Mediterranean, Caribbean, Atlantic, Pacific or the Gulf of Mexico, BUT NONE AS MEMORABLE AS THIS!!…</t>
+          <t>a wonderful experience - small boat for maximum 12 passengers, ideal for private travel,the 2 Andreas that make up the crew were wonderful - extremely friendly and helpful - they managed to make us a beautiful day - lunch was fished in front of us , they gave us more time where we wished even if that meant going beyond their program. &amp; thanks Poseideon team!</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>LOOK NO FURTHER! THIS IS A MUST!!</t>
+          <t>an unforgettable experience in Milos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1125,12 +1125,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>We’ve been on plenty of great boat trips in the past but this is so much more. This is authentic fishing and you can either help or sit back and relax.  You get all the usual boat trip stuff ie amazing secluded swimming spots and plenty to drink but the cool bit is catching the…</t>
+          <t xml:space="preserve">A relaxing day with great people and a real taste of Greece. Fishing on the boat, releasing the fish from the nets and then our captain cooked the catch for us whilst we lay on a secluded beach! Turtles and a bit of snorkelling too.  The food was amazing, fresh &amp; tasty.  Nothing too much trouble.  You have to try this, more personal, very traditional and we learnt something too.  Thank you Maria and Captain - we loved it! </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fish-tastic!</t>
+          <t>A taste of Greece</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1141,12 +1141,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Spending a holiday in Svoronata we looked into the boat trip here and emailed to pre-book-it was the best decision of our holiday! The most welcoming of hosts, superb company and gorgeous food together with swimming off the boat made this an idyllic day. This trip was worth…</t>
+          <t>I can’t say enough about this amazing evening!!! Hands down the best lobster I have ever had in Greece.So, I own a small group of vacation properties on the island. I have always heard amazing reviews of Michali’s Fishing Boat from my guests and decided to give it it a try with a group of friends from the island. I am so happy I did. I highly recommend this to everyone. You will not be disappointed. Andonia and Michalis catered to our every need. Professional courteous and went above and beyond to make our evening cruise memorable. Thank you Andonia and Michalis!</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Best day of our holiday!</t>
+          <t>Highly Recommend</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1157,12 +1157,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Forget the big organised tours with a large boat crammed with tourists - if you want a bit of an insight into small scale local life combined with a relaxing day visiting beaches - loo no further than this trip. We joined a small group of folk for the day, which began with…</t>
+          <t>My wife and I decided to go on an afternoon fishing trip with Makaroynas Vassilis. Brilliant day out. Antwan and Antonis made every effort possible including a great dinner of fresh fish, salad, bread and dessert. Highly recommend it. H and L</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Top notch day out</t>
+          <t>Excellent day out</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1173,12 +1173,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>I had an amazing day fishing/ swimming and of course eating on this excursion, would do again in a heart beat. Great fun for all ages and the hosts were amazing. I met several people on this trip, and everyone had a great time. Thanks. X</t>
+          <t>If you want a fishing trip with real fisher man and a special greek hospitality just join the trip and let the captain Basilis make the other for you,Highly recommended!!!</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A must do when visiting Kefalonia</t>
+          <t>Fantastic</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1189,12 +1189,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>My husband and I always said we'd never go back to the same place twice, but we're going to break our own rule and go back again, to experience this trip again. A fabulous day with excellent hosts, fishing, swimming, eating the catch, washed down with local wine - my idea of…</t>
+          <t xml:space="preserve">Celebrated a friends 50th birthday on board and had the most fun.  The fish freshly caught and cooked as part of an amazing lunch.  So friendly and welcoming on boat.  Highly recommend a trip with Zante Fishing Tours.  Thanks for the memories. </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Excellent day out, authentic and friendly</t>
+          <t>What a great day out</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1205,12 +1205,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>We had a lovely 5 hours trip with captain Vassily near the shore of Rodos, it is a small fishing boat but the trip was wonderful. Vassily took us to few places to find and fish fish and indeed we got plenty of it. On the way he offered water and other drinks but when we stoped…</t>
+          <t>We've just had our 2nd day out on this trip and are so happy to say it was as good as the 1st time.Fantastic hospitality, delicious food and beautiful scenery and swimming.We love this boat and the people who run it. Totally recommend to people with young children as the time flies by and its a very relaxing day out.....we will be back!</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mr dror</t>
+          <t>Awesome</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1221,12 +1221,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Helpful staff on the boat, teaches non fishing ppl how to use equipment correctly   During trip nice views of Rhodes, provides a non fish option for non fish eaters  good food! </t>
+          <t>Thank you for a fabulous day on the sea with your family.  We had a great day, were well looked after and enjoyed the delicious food that kept coming all day.  Next time we will catch  that big fish!!!</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Good fishing trip</t>
+          <t>Fabulous day on the sea</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1237,12 +1237,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>If you want to see a fisherman in his local environment - pulling in the nets in and allowing you - if you wish - to help take the fish out - then cooking them along with the most fantastic prawns then this is a must trip.  My wife and I joined another couple who had booked for…</t>
+          <t>We had the treat of spending the day with Nikos and Frosso and just one other passenger. The day felt so natural and relaxed, as if they were our friends and we were just joining them for a day of fishing and island hopping. They both took extra care to show us the beauty of their home, to feed us constantly, and to tailor the trip exactly how we wanted. Highlights include learning about the local fishery, swimming in the bluest water we have ever seen, watching them reel in the fishing nets to see what we had caught, enjoying a home-cooked lunch of fresh fish, squid, macaroni, salad, and delicious wine, all prepared on the boat by amazing Frosso! We felt like family and were sad to say goodbye to them at the end of the day. A perfect trip for couples, friends, or family, we hope to come back someday!</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>What an amazing day !</t>
+          <t>Highlight of our trip!</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1253,12 +1253,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">This trip is a must for visitors  to the island. Excellent day out. Friendly crew. Very accommodating. Highly recommended </t>
+          <t>We have had the most beautiful day on this boat. Especially cool was observing the catch  from a 700 m long net. It seems endless. And a lot of different fish and sea foodWe went to the most outstanding beaches this island had to offer with crystal clear water. So if you do this bring all your snorkeling &amp; swimming gear and of cause your camera...While we were having fun Xristina and Yannis prepared the most delicious meal ever, all from the fresh catch. Now this is an experience you will never forget. My family and me loved it!</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Excellent  day out</t>
+          <t xml:space="preserve">Amazing fishing &amp; boat trip </t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1269,12 +1269,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Firstly Dimitrios the owner and Captain of this boat is a super host and very kind and thoughtful with his guests. You couldn't want for a better fisherman to take you out. The boat is lovely and clean and not too big to be impersonal and not too small to feel cramped. We…</t>
+          <t>Best thing we did in the whole week! Extremely friendly staff. One person in our company chosed chicken instead of fish for the meal. When time came for cooking, the captain realized that he forgot to bring chicken. We told him that it was okay, but he sent an employee swimming to the shore to pick up chicken brought there from another member of the staff, and then he swom back to the boat with the chicken held above the surface. Just 11 people on board at the time makes it nice. Bring water, since the only drink included is with the meal at the end of the trip.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Wonderful day with my son fishing</t>
+          <t>Amazing!</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1285,12 +1285,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Mr Captain Giorgos was exceptionaly friendly, welcoming and nice .  I lived an unforgetable experience in the blue aegean sea and I would undoubtably recommend it to everyone !!</t>
+          <t xml:space="preserve">My husband and I always said we'd never go back to the same place twice, but we're going to break our own rule and go back again, to experience this trip again. A fabulous day with excellent hosts, fishing, swimming, eating the catch, washed down with local wine - my idea of heaven. The group's are small enough to be friendly and are really authentic unlike many of the other touristy boat trips. Definitely a 10/10. </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Unique Experience</t>
+          <t>Excellent day out, authentic and friendly</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1301,12 +1301,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>It is my first time ocean fishing.Giorgos is the best captain! He is knowledgable, and likes to share with people.  Such a good experience. It's not only about fishing. The food we got is fabulous as well!!</t>
+          <t>This was a highlight of our visit to Santorini.  Anthi is so very proud of what she does and her heritage.  It bleeds through in all she does on the fishing trip.  Her crew is very helpful and cheery as well.  We truly enjoyed every minute.  It was very informative to learn about several aspects of fishing from traps to nets to hand lines.  We strongly recommend this fishing experience.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Fantastic day with Giorgos</t>
+          <t>An excursion of a lifetime</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1317,12 +1317,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A great fantastic day fishing, lovely people, fabulous food, great no matter what age this family run business are kind friendly and have a great sense of humour, nothing is to much trouble, it is also very educational.Have already booked for a second trip. A big thank you to…</t>
+          <t>An amazing day out and what Poros has been missing. Giannis is a brilliant skipper, host, fishing genius! 6 of us went, 3 adults and 3 children and everyone loved it!!! Highly recommend this for all! See you again next year</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">An amazing day out well worthwhile </t>
+          <t>Brilliant fishing trip and snorkelling</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1333,12 +1333,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>We had fishing trip yesterday. All our expectations were come true. Captain of the boat was very amicable and friendly. During the trip we caught quite a few fishes and got a lot of enjoy. Highly recommended for any who'd like enjoy holidays. Thanks a lot for great amusement.</t>
+          <t xml:space="preserve">We spent the day with Effy, Dimitrios, Mohammed and Eva on the 1st Aug to celebrate my dad's 70th,  superb day had by all,  the team attended to our every need, so friendly, my 10 year old son got involved in assisting with the mornings fish catch,  hauled in red mullet, barracuda,scorpion fish, several squid the list went on and in. Moored up on beautiful remote beach, whilst snorkeling we were cooked a superb meal by the talented Effy,  delicious food all round,  tasted lobster, along with home grown vegetables, wonderful day, our group did not want it to end and Effy and Dimitrios truly had a great day with us also.  Cannot recommend this trip enough, they will do their upmost to accommodate any special requests your group may have I'm sure.  So friendly and a definite trip we will not forget. My dad had a day he said he'll never forget.  Thank-you to all your team and hope to see you again one day! </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Best fishing trip!</t>
+          <t xml:space="preserve">Brilliant Day Out! </t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1349,12 +1349,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>What a brilliant day!! Fishing was great ww caught 32 between 10 of us on the boat which where cooked for us along with some fresh sea bream the captain's friend who he works as a pro fisherman in the winter with caught that very morning. Non fish eaters got a big bbq chicken…</t>
+          <t xml:space="preserve">Great trip! A bit of a hidden gem as they are a relatively new company operating. Geronimus and Babis are excellent hosts and made us all feel very welcome. It was fascinating watching them pull in their nets from the night before to see what they had caught, and the food they cooked up for us as a result was incredible! We also had a lovely swim on a quiet beach they took us to. We really enjoyed being on a smaller boat where the experience was more hands-on and personal. Don’t hesitate to book. </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Highlight of the holiday </t>
+          <t>Fantastic day out</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1365,12 +1365,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>I had a great day today, Anthi was warm from the first email to the goodbye hug.   Anthi is passionate about fishing, the marine environment and conserving it and knows the local area like the back of her hand. She and her crew are great accompaniments with a huge diversity of…</t>
+          <t>We have just had one of the most memorable days of our lives.All thanks to Dimitrios and Efthimia.What a day! And where to start?!?First of all we must say if you are visiting the island this is a MUST do trip. Even if you do one this has to be it.We saw turtles, seals and so many types of fish. Helped trawl the fish from the sea and helped get them out of the net. We learned so much about each fish thst was caught, Dimitrios and Efthimia are so knowledgeable and truly know what they are talking about. We sailed to two remote beaches. Both breathtaking. One had a pit of natural clay. We covered ourselves in it. It felt amazing to use earths natural resources in that way. Our skin looked and felt like we'd been at a spa for the day.Even our teenage son joined in. We swam in the perfect turquoise waters and so much fun diving and jumping off the boat.While we were left to enjoy our surroundings Dimitrios and Efthimia were preparing and cooking up a storm on board. All the fish caught from the morning we ate. It was the best meal we'd eaten since being here. Everything was so fresh and tasty. We were astounded with all that was provided. Homemade lemonade, wine, fresh watermelon,  salads, fish, bread. We were all stuffed! The boat was constantly being hosed down and kept clean. We could go on and on but you just have to experience it yourself. It's for every age from young to old (or wise) Really was a day to remember.Thank you so much Dimitrios and Efthimia!!We will be coming back again!! Lindsey, Lee and Lucas</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Fantastic trip with passionate, sustainable local family run business.</t>
+          <t>Most amazing day!</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1381,12 +1381,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>We took the fishing tour with our two children (11 and 13) it was an early start. Antonio very kindly picked us up at 7.40 as we were in Svoronata. The day started with drinks and sailing out to put out the nets and to bring in the nets for the days catch. We couldn’t believe…</t>
+          <t>This was a fantastic day on a fishing boat, led by a great captain Andreas, who was capable and friendly.First we watched as they pulled in the net, filled with (delicious) fish we would later eat. Other very tasty Greek snacks were also provided.Followed by a tour of multiple islands, including the most amazing deserted beach.We are very happy we chose to go out with Poseideon! We highly recommend.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fantastic Day out ! </t>
+          <t>Best day of our trip</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1397,12 +1397,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>We had a very special day in Nikos and Froso's boat, traveling around the Polyegos island famous for the turquoise waters and caves. Watching real fishing with nets and preparing the lunch with the fish catch was an experience you cannot imagine. They were  very friendly and…</t>
+          <t>Forget the big organised tours with a large boat crammed with tourists - if you want a bit of an insight into small scale local life combined with a relaxing day visiting beaches - loo no further than this trip.We joined a small group of folk for the day, which began with coffee &amp; a light breakfast.  We were soon off &amp; pulling in the nets - helping (if you wanted to) to untangle the assorted fish.  We were surprised to be joined by a large eel almost immediately - but it was soon cast back overboard by Dimitri to hunt again.  We caught mainly parrot fish in the 'big fish' net, with a wider selection, including several cuttlefish in the smaller fish net.  We also threw back some interesting stuff, like rays and scorpion fish, before setting off for our first beach.  On the way we stuck the boat's nose in a couple of caves - catching a nice view of a seal.Once there, we enjoyed a relaxing swim, while Efi prepared dinner.The meal was lovely.  The fish we'd caught was supplemented by salads, potatoes and cold drinks.The second beach we visited was a bit better for snorkelling and it also had a natural clay pit that we all used to cover ourselves in.  Not sure what cleansing qualities it had - but it was good fun looking like a gargoyle for a while!There was (I think) a third beach that we should've visited, but we stayed longer here as one of the youngsters in our party had been a little sea sick on the initial journey. Besides the freshly caught fish, much of what we ate and drank had been grown and produced by our hosts, including the breakfast jam, salads and rose wine.In summary, a memorable and worthwhile trip expertly hosted by local folk.  Champion!</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Unique experience in Milos</t>
+          <t>Top notch day out</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1413,12 +1413,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>The day trip around Poros island was excellent, Tasos is a great host. He showed us the nicest coasts of Poros and during the trip he cooked for us fresh fish. He also provided soft drinks and wine. I highly recommend this trip with Tasos.</t>
+          <t>I never had though that going for a boat trip would be such amazing experience, great activities such as swimming in crystal clear waters and fishing! The food also fresh and great taste. We strongly recommend  Makarounas fishing trip!</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>best day in Poros</t>
+          <t>Amazing time for the whole family</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
